--- a/test_excel/IEC13680.xlsx
+++ b/test_excel/IEC13680.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="21">
   <si>
     <t>server_name</t>
   </si>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>yes,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dut_server</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -898,8 +906,6803 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1.41</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>180</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>135</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>180</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>90</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>2.23</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>27</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>180</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>63</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>180</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>117</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>90</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>180</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>153</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>90</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>2.82</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>45</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>90</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>135</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77">
+        <v>45</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>90</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80">
+        <v>135</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>90</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>90</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90">
+        <v>180</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>180</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93">
+        <v>90</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>90</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>90</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>72</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>90</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>108</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>90</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>162</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>90</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>180</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109">
+        <v>18</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>90</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>180</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112">
+        <v>72</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>90</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>180</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <v>108</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116">
+        <v>90</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <v>180</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118">
+        <v>162</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>90</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123">
+        <v>90</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>56</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>90</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128">
+        <v>124</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129">
+        <v>90</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>146</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>90</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <v>180</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134">
+        <v>34</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <v>90</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>180</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137">
+        <v>56</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>90</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>180</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140">
+        <v>124</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>90</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>180</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143">
+        <v>146</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144">
+        <v>90</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="2">
+        <v>4</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148">
+        <v>90</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>90</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151">
+        <v>90</v>
+      </c>
+      <c r="E151" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>180</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154">
+        <v>90</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>180</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156">
+        <v>90</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157">
+        <v>90</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161">
+        <v>90</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>76</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164">
+        <v>90</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>104</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167">
+        <v>90</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169">
+        <v>166</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170">
+        <v>90</v>
+      </c>
+      <c r="E170" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>180</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172">
+        <v>14</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173">
+        <v>90</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>180</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175">
+        <v>76</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176">
+        <v>90</v>
+      </c>
+      <c r="E176" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178">
+        <v>180</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178">
+        <v>104</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179">
+        <v>90</v>
+      </c>
+      <c r="E179" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181">
+        <v>180</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181">
+        <v>166</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182">
+        <v>90</v>
+      </c>
+      <c r="E182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184">
+        <v>4.24</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185">
+        <v>45</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186">
+        <v>90</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188">
+        <v>135</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189">
+        <v>90</v>
+      </c>
+      <c r="E189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191">
+        <v>180</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191">
+        <v>45</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192">
+        <v>90</v>
+      </c>
+      <c r="E192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>180</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194">
+        <v>135</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195">
+        <v>90</v>
+      </c>
+      <c r="E195" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197">
+        <v>4.47</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198">
+        <v>27</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199">
+        <v>90</v>
+      </c>
+      <c r="E199" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202">
+        <v>90</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>117</v>
+      </c>
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205">
+        <v>90</v>
+      </c>
+      <c r="E205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" t="s">
+        <v>15</v>
+      </c>
+      <c r="G205" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207">
+        <v>153</v>
+      </c>
+      <c r="D207" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208">
+        <v>90</v>
+      </c>
+      <c r="E208" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" t="s">
+        <v>15</v>
+      </c>
+      <c r="G209" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210">
+        <v>180</v>
+      </c>
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" t="s">
+        <v>15</v>
+      </c>
+      <c r="F210" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210">
+        <v>27</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211">
+        <v>90</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213">
+        <v>180</v>
+      </c>
+      <c r="D213" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213">
+        <v>63</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214">
+        <v>90</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216">
+        <v>180</v>
+      </c>
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216">
+        <v>117</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217">
+        <v>90</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>15</v>
+      </c>
+      <c r="G217" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" t="s">
+        <v>15</v>
+      </c>
+      <c r="G218" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219">
+        <v>180</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" t="s">
+        <v>15</v>
+      </c>
+      <c r="G219">
+        <v>153</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220">
+        <v>90</v>
+      </c>
+      <c r="E220" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" t="s">
+        <v>15</v>
+      </c>
+      <c r="G221" t="s">
+        <v>15</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223">
+        <v>37</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224">
+        <v>90</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" t="s">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>15</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226">
+        <v>53</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227">
+        <v>90</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229">
+        <v>127</v>
+      </c>
+      <c r="D229" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230">
+        <v>90</v>
+      </c>
+      <c r="E230" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" t="s">
+        <v>15</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232">
+        <v>143</v>
+      </c>
+      <c r="D232" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" t="s">
+        <v>15</v>
+      </c>
+      <c r="F232" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233">
+        <v>90</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233" t="s">
+        <v>15</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>15</v>
+      </c>
+      <c r="F234" t="s">
+        <v>15</v>
+      </c>
+      <c r="G234" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235">
+        <v>180</v>
+      </c>
+      <c r="D235" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" t="s">
+        <v>15</v>
+      </c>
+      <c r="F235" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235">
+        <v>37</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236">
+        <v>90</v>
+      </c>
+      <c r="E236" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" t="s">
+        <v>15</v>
+      </c>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238">
+        <v>180</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238" t="s">
+        <v>15</v>
+      </c>
+      <c r="F238" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238">
+        <v>53</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239">
+        <v>90</v>
+      </c>
+      <c r="E239" t="s">
+        <v>15</v>
+      </c>
+      <c r="F239" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>15</v>
+      </c>
+      <c r="F240" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241">
+        <v>180</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" t="s">
+        <v>15</v>
+      </c>
+      <c r="F241" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241">
+        <v>127</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242">
+        <v>90</v>
+      </c>
+      <c r="E242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>15</v>
+      </c>
+      <c r="F243" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244">
+        <v>180</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" t="s">
+        <v>15</v>
+      </c>
+      <c r="G244">
+        <v>143</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245">
+        <v>90</v>
+      </c>
+      <c r="E245" t="s">
+        <v>15</v>
+      </c>
+      <c r="F245" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247">
+        <v>5.65</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248">
+        <v>45</v>
+      </c>
+      <c r="D248" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249">
+        <v>90</v>
+      </c>
+      <c r="E249" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251">
+        <v>135</v>
+      </c>
+      <c r="D251" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" t="s">
+        <v>15</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252">
+        <v>90</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" t="s">
+        <v>15</v>
+      </c>
+      <c r="G252" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" t="s">
+        <v>15</v>
+      </c>
+      <c r="G253" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254">
+        <v>180</v>
+      </c>
+      <c r="D254" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" t="s">
+        <v>15</v>
+      </c>
+      <c r="F254" t="s">
+        <v>15</v>
+      </c>
+      <c r="G254">
+        <v>45</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255">
+        <v>90</v>
+      </c>
+      <c r="E255" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" t="s">
+        <v>15</v>
+      </c>
+      <c r="G255" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257">
+        <v>180</v>
+      </c>
+      <c r="D257" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" t="s">
+        <v>15</v>
+      </c>
+      <c r="G257">
+        <v>135</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>14</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258">
+        <v>90</v>
+      </c>
+      <c r="E258" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>15</v>
+      </c>
+      <c r="F259" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_excel/IEC13680.xlsx
+++ b/test_excel/IEC13680.xlsx
@@ -488,33 +488,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -533,32 +529,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -651,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -659,17 +653,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -692,12 +686,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -705,17 +699,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -735,12 +729,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -748,17 +742,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -778,7 +772,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -786,17 +780,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -819,12 +813,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -832,17 +826,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -862,12 +856,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -875,17 +869,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -905,7 +899,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -913,17 +907,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -946,12 +940,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -959,17 +953,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -989,12 +983,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1002,17 +996,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1032,7 +1026,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1040,17 +1034,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1073,12 +1067,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1086,17 +1080,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1116,12 +1110,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1129,17 +1123,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1182,7 +1176,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1190,17 +1184,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1223,12 +1217,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1236,17 +1230,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1266,12 +1260,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1279,17 +1273,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1309,7 +1303,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1317,17 +1311,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1350,12 +1344,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1363,17 +1357,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1393,12 +1387,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1406,17 +1400,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1436,7 +1430,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1444,17 +1438,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1477,12 +1471,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1490,17 +1484,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1520,12 +1514,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1533,17 +1527,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1563,7 +1557,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1571,17 +1565,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1604,12 +1598,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1617,17 +1611,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1647,12 +1641,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1660,17 +1654,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1713,7 +1707,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1721,17 +1715,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1754,12 +1748,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1767,17 +1761,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1797,12 +1791,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1810,17 +1804,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1840,7 +1834,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1848,17 +1842,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1881,12 +1875,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1894,17 +1888,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1924,12 +1918,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1937,17 +1931,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1967,7 +1961,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1975,17 +1969,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2008,12 +2002,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2021,17 +2015,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2051,12 +2045,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2064,17 +2058,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2094,7 +2088,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2102,17 +2096,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2135,12 +2129,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2148,17 +2142,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2178,12 +2172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2191,17 +2185,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2244,7 +2238,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2252,17 +2246,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2285,12 +2279,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2298,17 +2292,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2328,12 +2322,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2341,17 +2335,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2371,7 +2365,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2379,17 +2373,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2412,12 +2406,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2425,17 +2419,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2455,12 +2449,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2468,17 +2462,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2498,7 +2492,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2506,17 +2500,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2539,12 +2533,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2552,17 +2546,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2582,12 +2576,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2595,17 +2589,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2625,7 +2619,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2633,17 +2627,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2666,12 +2660,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2679,17 +2673,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2709,12 +2703,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2722,17 +2716,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2752,7 +2746,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2760,17 +2754,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2793,12 +2787,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2806,17 +2800,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2836,12 +2830,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2849,17 +2843,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2879,7 +2873,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2887,17 +2881,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2920,12 +2914,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2933,17 +2927,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2963,12 +2957,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2976,17 +2970,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -3006,7 +3000,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3014,17 +3008,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3047,12 +3041,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -3060,17 +3054,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3090,12 +3084,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -3103,17 +3097,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3133,7 +3127,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3141,17 +3135,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3174,12 +3168,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3187,17 +3181,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3217,12 +3211,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3230,17 +3224,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3283,7 +3277,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3291,17 +3285,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3324,12 +3318,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3337,17 +3331,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3367,12 +3361,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3380,17 +3374,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3410,7 +3404,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3418,17 +3412,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3451,12 +3445,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3464,17 +3458,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3494,12 +3488,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3507,17 +3501,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3537,7 +3531,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3545,17 +3539,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3578,12 +3572,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3591,17 +3585,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3621,12 +3615,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3634,17 +3628,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3664,7 +3658,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3672,17 +3666,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3705,12 +3699,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3718,17 +3712,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3748,12 +3742,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3761,17 +3755,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3814,7 +3808,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3822,17 +3816,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3855,12 +3849,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3868,17 +3862,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3898,12 +3892,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3911,17 +3905,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3941,7 +3935,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3949,17 +3943,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3982,12 +3976,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3995,17 +3989,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -4025,12 +4019,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -4038,17 +4032,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -4068,7 +4062,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4076,17 +4070,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4109,12 +4103,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -4122,17 +4116,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -4152,12 +4146,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -4165,17 +4159,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4195,7 +4189,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4203,17 +4197,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4236,12 +4230,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4249,17 +4243,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4279,12 +4273,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4292,17 +4286,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4345,7 +4339,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4353,17 +4347,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4386,12 +4380,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -4399,17 +4393,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -4429,12 +4423,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4442,17 +4436,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4472,7 +4466,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4480,17 +4474,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4513,12 +4507,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4526,17 +4520,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4556,12 +4550,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4569,17 +4563,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4599,7 +4593,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4607,17 +4601,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4640,12 +4634,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -4653,17 +4647,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -4683,12 +4677,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -4696,17 +4690,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -4726,7 +4720,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4734,17 +4728,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4767,12 +4761,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -4780,17 +4774,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4810,12 +4804,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -4823,17 +4817,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4853,7 +4847,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4861,17 +4855,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4894,12 +4888,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -4907,17 +4901,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -4937,12 +4931,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -4950,17 +4944,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4980,7 +4974,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4988,17 +4982,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5021,12 +5015,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -5034,17 +5028,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -5064,12 +5058,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -5077,17 +5071,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -5107,7 +5101,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5115,17 +5109,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -5148,12 +5142,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -5161,17 +5155,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -5191,12 +5185,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -5204,17 +5198,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -5234,7 +5228,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5242,17 +5236,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5275,12 +5269,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -5288,17 +5282,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -5318,12 +5312,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -5331,17 +5325,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -5384,7 +5378,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -5392,17 +5386,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -5425,12 +5419,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -5438,17 +5432,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -5468,12 +5462,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -5481,17 +5475,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -5511,7 +5505,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5519,17 +5513,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5552,12 +5546,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -5565,17 +5559,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -5595,12 +5589,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -5608,17 +5602,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -5638,7 +5632,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5646,17 +5640,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5679,12 +5673,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -5692,17 +5686,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -5722,12 +5716,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -5735,17 +5729,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -5765,7 +5759,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5773,17 +5767,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5806,12 +5800,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -5819,17 +5813,17 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -5849,12 +5843,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -5862,17 +5856,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -5892,7 +5886,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -5900,17 +5894,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -5933,12 +5927,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -5946,17 +5940,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -5976,12 +5970,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -5989,17 +5983,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -6019,7 +6013,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -6027,17 +6021,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6060,12 +6054,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -6073,17 +6067,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -6103,12 +6097,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -6116,17 +6110,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -6146,7 +6140,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -6154,17 +6148,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -6187,12 +6181,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -6200,17 +6194,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -6230,12 +6224,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -6243,17 +6237,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -6273,7 +6267,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -6281,17 +6275,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -6314,12 +6308,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -6327,17 +6321,17 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -6357,12 +6351,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -6370,17 +6364,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -6423,7 +6417,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -6431,17 +6425,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -6464,12 +6458,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -6477,17 +6471,17 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -6507,12 +6501,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -6520,17 +6514,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -6550,7 +6544,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -6558,17 +6552,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -6591,12 +6585,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -6604,17 +6598,17 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -6634,12 +6628,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -6647,17 +6641,17 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -6677,7 +6671,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -6685,17 +6679,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -6718,12 +6712,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -6731,17 +6725,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -6761,12 +6755,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -6774,17 +6768,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -6804,7 +6798,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -6812,17 +6806,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -6845,12 +6839,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -6858,17 +6852,17 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -6888,12 +6882,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -6901,17 +6895,17 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -6954,7 +6948,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6962,17 +6956,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -6995,12 +6989,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -7008,17 +7002,17 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -7038,12 +7032,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -7051,17 +7045,17 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -7081,7 +7075,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -7089,17 +7083,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -7122,12 +7116,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -7135,17 +7129,17 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -7165,12 +7159,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -7178,17 +7172,17 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -7208,7 +7202,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -7216,17 +7210,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -7249,12 +7243,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -7262,17 +7256,17 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -7292,12 +7286,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -7305,17 +7299,17 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -7335,7 +7329,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -7343,17 +7337,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -7376,12 +7370,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -7389,17 +7383,17 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -7419,12 +7413,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -7432,17 +7426,17 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -7462,7 +7456,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -7470,17 +7464,17 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7503,12 +7497,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -7516,17 +7510,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -7546,12 +7540,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -7559,17 +7553,17 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -7589,7 +7583,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -7597,17 +7591,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -7630,12 +7624,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -7643,17 +7637,17 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H176" t="n">
@@ -7673,12 +7667,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -7686,17 +7680,17 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -7716,7 +7710,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -7724,17 +7718,17 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -7757,12 +7751,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -7770,17 +7764,17 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -7800,12 +7794,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -7813,17 +7807,17 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -7843,7 +7837,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -7851,17 +7845,17 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -7884,12 +7878,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -7897,17 +7891,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -7927,12 +7921,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -7940,17 +7934,17 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -7993,7 +7987,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -8001,17 +7995,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -8034,12 +8028,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -8047,17 +8041,17 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -8077,12 +8071,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -8090,17 +8084,17 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -8120,7 +8114,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -8128,17 +8122,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -8161,12 +8155,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -8174,17 +8168,17 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -8204,12 +8198,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -8217,17 +8211,17 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H190" t="n">
@@ -8247,7 +8241,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -8255,17 +8249,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -8288,12 +8282,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -8301,17 +8295,17 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -8331,12 +8325,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -8344,17 +8338,17 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -8374,7 +8368,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -8382,17 +8376,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8415,12 +8409,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -8428,17 +8422,17 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -8458,12 +8452,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -8471,17 +8465,17 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -8524,7 +8518,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -8532,17 +8526,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -8565,12 +8559,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -8578,17 +8572,17 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -8608,12 +8602,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -8621,17 +8615,17 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -8651,7 +8645,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -8659,17 +8653,17 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -8692,12 +8686,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -8705,17 +8699,17 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H202" t="n">
@@ -8735,12 +8729,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -8748,17 +8742,17 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -8778,7 +8772,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -8786,17 +8780,17 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -8819,12 +8813,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -8832,17 +8826,17 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -8862,12 +8856,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -8875,17 +8869,17 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -8905,7 +8899,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -8913,17 +8907,17 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -8946,12 +8940,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -8959,17 +8953,17 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H208" t="n">
@@ -8989,12 +8983,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -9002,17 +8996,17 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -9032,7 +9026,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -9040,17 +9034,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G210" t="n">
@@ -9073,12 +9067,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -9086,17 +9080,17 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -9116,12 +9110,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -9129,17 +9123,17 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H212" t="n">
@@ -9159,7 +9153,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -9167,17 +9161,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -9200,12 +9194,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -9213,17 +9207,17 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H214" t="n">
@@ -9243,12 +9237,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -9256,17 +9250,17 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H215" t="n">
@@ -9286,7 +9280,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -9294,17 +9288,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G216" t="n">
@@ -9327,12 +9321,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -9340,17 +9334,17 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -9370,12 +9364,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -9383,17 +9377,17 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -9413,7 +9407,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -9421,17 +9415,17 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -9454,12 +9448,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -9467,17 +9461,17 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -9497,12 +9491,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -9510,17 +9504,17 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -9563,7 +9557,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -9571,17 +9565,17 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -9604,12 +9598,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -9617,17 +9611,17 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -9647,12 +9641,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -9660,17 +9654,17 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -9690,7 +9684,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -9698,17 +9692,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -9731,12 +9725,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -9744,17 +9738,17 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -9774,12 +9768,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -9787,17 +9781,17 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -9817,7 +9811,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -9825,17 +9819,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -9858,12 +9852,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -9871,17 +9865,17 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H230" t="n">
@@ -9901,12 +9895,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -9914,17 +9908,17 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -9944,7 +9938,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -9952,17 +9946,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -9985,12 +9979,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -9998,17 +9992,17 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -10028,12 +10022,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -10041,17 +10035,17 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H234" t="n">
@@ -10071,7 +10065,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -10079,17 +10073,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -10112,12 +10106,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -10125,17 +10119,17 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H236" t="n">
@@ -10155,12 +10149,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -10168,17 +10162,17 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -10198,7 +10192,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -10206,17 +10200,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G238" t="n">
@@ -10239,12 +10233,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -10252,17 +10246,17 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H239" t="n">
@@ -10282,12 +10276,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -10295,17 +10289,17 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -10325,7 +10319,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -10333,17 +10327,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -10366,12 +10360,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -10379,17 +10373,17 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H242" t="n">
@@ -10409,12 +10403,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -10422,17 +10416,17 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -10452,7 +10446,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -10460,17 +10454,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G244" t="n">
@@ -10493,12 +10487,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -10506,17 +10500,17 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -10536,12 +10530,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -10549,17 +10543,17 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H246" t="n">
@@ -10602,7 +10596,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -10610,17 +10604,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -10643,12 +10637,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -10656,17 +10650,17 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H249" t="n">
@@ -10686,12 +10680,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -10699,17 +10693,17 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H250" t="n">
@@ -10729,7 +10723,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -10737,17 +10731,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G251" t="n">
@@ -10770,12 +10764,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -10783,17 +10777,17 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -10813,12 +10807,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -10826,17 +10820,17 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H253" t="n">
@@ -10856,7 +10850,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -10864,17 +10858,17 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -10897,12 +10891,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -10910,17 +10904,17 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H255" t="n">
@@ -10940,12 +10934,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -10953,17 +10947,17 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H256" t="n">
@@ -10983,7 +10977,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -10991,17 +10985,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -11024,12 +11018,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -11037,17 +11031,17 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H258" t="n">
@@ -11067,12 +11061,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -11080,17 +11074,17 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H259" t="n">

--- a/test_excel/IEC13680.xlsx
+++ b/test_excel/IEC13680.xlsx
@@ -493,23 +493,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -529,23 +529,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>

--- a/test_excel/IEC13680.xlsx
+++ b/test_excel/IEC13680.xlsx
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>ON</t>
-  </si>
-  <si>
-    <t>yes,3</t>
   </si>
   <si>
     <t>1,0</t>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>4,-4</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="H340" sqref="H340"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -820,7 +820,7 @@
         <v>90</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F8">
         <v>90</v>
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
         <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -942,7 +942,7 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F12">
         <v>90</v>
@@ -954,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -986,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>90</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F14">
         <v>90</v>
@@ -1064,7 +1064,7 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F16">
         <v>90</v>
@@ -1076,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -1186,7 +1186,7 @@
         <v>90</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -1198,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1230,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F22">
         <v>90</v>
@@ -1322,7 +1322,7 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F25">
         <v>90</v>
@@ -1334,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F27">
         <v>90</v>
@@ -1444,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F29">
         <v>90</v>
@@ -1456,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1488,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F31">
         <v>90</v>
@@ -1566,7 +1566,7 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F33">
         <v>90</v>
@@ -1578,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1610,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F35">
         <v>90</v>
@@ -1688,7 +1688,7 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F37">
         <v>90</v>
@@ -1700,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F39">
         <v>90</v>
@@ -1824,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F42">
         <v>90</v>
@@ -1836,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1868,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F44">
         <v>90</v>
@@ -1946,7 +1946,7 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F46">
         <v>90</v>
@@ -1958,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1990,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F48">
         <v>90</v>
@@ -2068,7 +2068,7 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F50">
         <v>90</v>
@@ -2080,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2112,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F52">
         <v>90</v>
@@ -2190,7 +2190,7 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F54">
         <v>90</v>
@@ -2202,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2234,10 +2234,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>90</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F56">
         <v>90</v>
@@ -2326,7 +2326,7 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F59">
         <v>90</v>
@@ -2338,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
         <v>18</v>
-      </c>
-      <c r="J59" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2370,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s">
         <v>18</v>
-      </c>
-      <c r="J60" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>90</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F61">
         <v>90</v>
@@ -2448,7 +2448,7 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F63">
         <v>90</v>
@@ -2460,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s">
         <v>18</v>
-      </c>
-      <c r="J63" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s">
         <v>18</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F65">
         <v>90</v>
@@ -2570,7 +2570,7 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F67">
         <v>90</v>
@@ -2582,10 +2582,10 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s">
         <v>18</v>
-      </c>
-      <c r="J67" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2614,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s">
         <v>18</v>
-      </c>
-      <c r="J68" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F69">
         <v>90</v>
@@ -2692,7 +2692,7 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F71">
         <v>90</v>
@@ -2704,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s">
         <v>18</v>
-      </c>
-      <c r="J71" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2736,10 +2736,10 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s">
         <v>18</v>
-      </c>
-      <c r="J72" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>90</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F73">
         <v>90</v>
@@ -2814,7 +2814,7 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F75">
         <v>90</v>
@@ -2826,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s">
         <v>18</v>
-      </c>
-      <c r="J75" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2858,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s">
         <v>18</v>
-      </c>
-      <c r="J76" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>90</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F77">
         <v>90</v>
@@ -2936,7 +2936,7 @@
         <v>90</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F79">
         <v>90</v>
@@ -2948,10 +2948,10 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" t="s">
         <v>18</v>
-      </c>
-      <c r="J79" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2980,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s">
         <v>18</v>
-      </c>
-      <c r="J80" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>90</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F81">
         <v>90</v>
@@ -3058,7 +3058,7 @@
         <v>90</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F83">
         <v>90</v>
@@ -3070,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s">
         <v>18</v>
-      </c>
-      <c r="J83" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3102,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s">
         <v>18</v>
-      </c>
-      <c r="J84" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>90</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F85">
         <v>90</v>
@@ -3180,7 +3180,7 @@
         <v>90</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F87">
         <v>90</v>
@@ -3192,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s">
         <v>18</v>
-      </c>
-      <c r="J87" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s">
         <v>18</v>
-      </c>
-      <c r="J88" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>90</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F89">
         <v>90</v>
@@ -3316,7 +3316,7 @@
         <v>90</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F92">
         <v>90</v>
@@ -3328,10 +3328,10 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3360,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>90</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F94">
         <v>90</v>
@@ -3438,7 +3438,7 @@
         <v>90</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F96">
         <v>90</v>
@@ -3450,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3482,10 +3482,10 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>90</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F98">
         <v>90</v>
@@ -3560,7 +3560,7 @@
         <v>90</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F100">
         <v>90</v>
@@ -3572,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3604,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>90</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F102">
         <v>90</v>
@@ -3682,7 +3682,7 @@
         <v>90</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F104">
         <v>90</v>
@@ -3694,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3726,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
         <v>90</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F106">
         <v>90</v>
@@ -3818,7 +3818,7 @@
         <v>90</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F109">
         <v>90</v>
@@ -3830,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3862,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3882,7 +3882,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F111">
         <v>90</v>
@@ -3940,7 +3940,7 @@
         <v>90</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F113">
         <v>90</v>
@@ -3952,10 +3952,10 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -3984,10 +3984,10 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
         <v>90</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F115">
         <v>90</v>
@@ -4062,7 +4062,7 @@
         <v>90</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -4074,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4106,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4126,7 +4126,7 @@
         <v>90</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F119">
         <v>90</v>
@@ -4184,7 +4184,7 @@
         <v>90</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F121">
         <v>90</v>
@@ -4196,10 +4196,10 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4228,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>90</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F123">
         <v>90</v>
@@ -4320,7 +4320,7 @@
         <v>90</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F126">
         <v>90</v>
@@ -4332,10 +4332,10 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4364,10 +4364,10 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4384,7 +4384,7 @@
         <v>90</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F128">
         <v>90</v>
@@ -4442,7 +4442,7 @@
         <v>90</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F130">
         <v>90</v>
@@ -4454,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4486,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
         <v>90</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F132">
         <v>90</v>
@@ -4564,7 +4564,7 @@
         <v>90</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F134">
         <v>90</v>
@@ -4576,10 +4576,10 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4608,10 +4608,10 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4628,7 +4628,7 @@
         <v>90</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F136">
         <v>90</v>
@@ -4686,7 +4686,7 @@
         <v>90</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F138">
         <v>90</v>
@@ -4698,10 +4698,10 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4730,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>90</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F140">
         <v>90</v>
@@ -4808,7 +4808,7 @@
         <v>90</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F142">
         <v>90</v>
@@ -4820,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -4852,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
         <v>90</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F144">
         <v>90</v>
@@ -4930,7 +4930,7 @@
         <v>90</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F146">
         <v>90</v>
@@ -4942,10 +4942,10 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,10 +4974,10 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -4994,7 +4994,7 @@
         <v>90</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F148">
         <v>90</v>
@@ -5052,7 +5052,7 @@
         <v>90</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F150">
         <v>90</v>
@@ -5064,10 +5064,10 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5096,10 +5096,10 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>90</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F152">
         <v>90</v>
@@ -5174,7 +5174,7 @@
         <v>90</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F154">
         <v>90</v>
@@ -5186,10 +5186,10 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5218,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
         <v>90</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F156">
         <v>90</v>
@@ -5310,7 +5310,7 @@
         <v>90</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F159">
         <v>90</v>
@@ -5322,10 +5322,10 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5354,10 +5354,10 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5374,7 +5374,7 @@
         <v>90</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F161">
         <v>90</v>
@@ -5432,7 +5432,7 @@
         <v>90</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F163">
         <v>90</v>
@@ -5444,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5476,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
         <v>90</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F165">
         <v>90</v>
@@ -5554,7 +5554,7 @@
         <v>90</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F167">
         <v>90</v>
@@ -5566,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5598,10 +5598,10 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5618,7 +5618,7 @@
         <v>90</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F169">
         <v>90</v>
@@ -5676,7 +5676,7 @@
         <v>90</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F171">
         <v>90</v>
@@ -5688,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5720,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>90</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F173">
         <v>90</v>
@@ -5798,7 +5798,7 @@
         <v>90</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F175">
         <v>90</v>
@@ -5810,10 +5810,10 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -5842,10 +5842,10 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -5862,7 +5862,7 @@
         <v>90</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F177">
         <v>90</v>
@@ -5920,7 +5920,7 @@
         <v>90</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F179">
         <v>90</v>
@@ -5932,10 +5932,10 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -5964,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -5984,7 +5984,7 @@
         <v>90</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F181">
         <v>90</v>
@@ -6042,7 +6042,7 @@
         <v>90</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F183">
         <v>90</v>
@@ -6054,10 +6054,10 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6086,10 +6086,10 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6106,7 +6106,7 @@
         <v>90</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F185">
         <v>90</v>
@@ -6164,7 +6164,7 @@
         <v>90</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F187">
         <v>90</v>
@@ -6176,10 +6176,10 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6208,10 +6208,10 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6228,7 +6228,7 @@
         <v>90</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F189">
         <v>90</v>
@@ -6300,7 +6300,7 @@
         <v>90</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F192">
         <v>90</v>
@@ -6312,10 +6312,10 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J192" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6344,10 +6344,10 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J193" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>90</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F194">
         <v>90</v>
@@ -6422,7 +6422,7 @@
         <v>90</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F196">
         <v>90</v>
@@ -6434,10 +6434,10 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6466,10 +6466,10 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6486,7 +6486,7 @@
         <v>90</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F198">
         <v>90</v>
@@ -6544,7 +6544,7 @@
         <v>90</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F200">
         <v>90</v>
@@ -6556,10 +6556,10 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J200" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6588,10 +6588,10 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J201" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6608,7 +6608,7 @@
         <v>90</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F202">
         <v>90</v>
@@ -6666,7 +6666,7 @@
         <v>90</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F204">
         <v>90</v>
@@ -6678,10 +6678,10 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6710,10 +6710,10 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J205" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
         <v>90</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F206">
         <v>90</v>
@@ -6802,7 +6802,7 @@
         <v>90</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F209">
         <v>90</v>
@@ -6814,10 +6814,10 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J209" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -6846,10 +6846,10 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
         <v>90</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F211">
         <v>90</v>
@@ -6924,7 +6924,7 @@
         <v>90</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F213">
         <v>90</v>
@@ -6936,10 +6936,10 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J213" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -6968,10 +6968,10 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J214" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>90</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F215">
         <v>90</v>
@@ -7046,7 +7046,7 @@
         <v>90</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F217">
         <v>90</v>
@@ -7058,10 +7058,10 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J217" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7090,10 +7090,10 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7110,7 +7110,7 @@
         <v>90</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F219">
         <v>90</v>
@@ -7168,7 +7168,7 @@
         <v>90</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F221">
         <v>90</v>
@@ -7180,10 +7180,10 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J221" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7212,10 +7212,10 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>90</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F223">
         <v>90</v>
@@ -7290,7 +7290,7 @@
         <v>90</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F225">
         <v>90</v>
@@ -7302,10 +7302,10 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J225" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7334,10 +7334,10 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J226" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7354,7 +7354,7 @@
         <v>90</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F227">
         <v>90</v>
@@ -7412,7 +7412,7 @@
         <v>90</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F229">
         <v>90</v>
@@ -7424,10 +7424,10 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J229" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J230" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
         <v>90</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F231">
         <v>90</v>
@@ -7534,7 +7534,7 @@
         <v>90</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F233">
         <v>90</v>
@@ -7546,10 +7546,10 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7578,10 +7578,10 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J234" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7598,7 +7598,7 @@
         <v>90</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F235">
         <v>90</v>
@@ -7656,7 +7656,7 @@
         <v>90</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F237">
         <v>90</v>
@@ -7668,10 +7668,10 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J237" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -7700,10 +7700,10 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J238" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
         <v>90</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F239">
         <v>90</v>
@@ -7792,7 +7792,7 @@
         <v>90</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F242">
         <v>90</v>
@@ -7804,10 +7804,10 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J242" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -7836,10 +7836,10 @@
         <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J243" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>90</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F244">
         <v>90</v>
@@ -7914,7 +7914,7 @@
         <v>90</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F246">
         <v>90</v>
@@ -7926,10 +7926,10 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J246" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -7958,10 +7958,10 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J247" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -7978,7 +7978,7 @@
         <v>90</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F248">
         <v>90</v>
@@ -8036,7 +8036,7 @@
         <v>90</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F250">
         <v>90</v>
@@ -8048,10 +8048,10 @@
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J250" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8080,10 +8080,10 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J251" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8100,7 +8100,7 @@
         <v>90</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F252">
         <v>90</v>
@@ -8158,7 +8158,7 @@
         <v>90</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F254">
         <v>90</v>
@@ -8170,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J254" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -8202,10 +8202,10 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J255" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -8222,7 +8222,7 @@
         <v>90</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F256">
         <v>90</v>
@@ -8294,7 +8294,7 @@
         <v>90</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F259">
         <v>90</v>
@@ -8306,10 +8306,10 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J259" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -8338,10 +8338,10 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J260" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -8358,7 +8358,7 @@
         <v>90</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F261">
         <v>90</v>
@@ -8416,7 +8416,7 @@
         <v>90</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F263">
         <v>90</v>
@@ -8428,10 +8428,10 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J263" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -8460,10 +8460,10 @@
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J264" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -8480,7 +8480,7 @@
         <v>90</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F265">
         <v>90</v>
@@ -8538,7 +8538,7 @@
         <v>90</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F267">
         <v>90</v>
@@ -8550,10 +8550,10 @@
         <v>1</v>
       </c>
       <c r="I267" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J267" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -8582,10 +8582,10 @@
         <v>1</v>
       </c>
       <c r="I268" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J268" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -8602,7 +8602,7 @@
         <v>90</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F269">
         <v>90</v>
@@ -8660,7 +8660,7 @@
         <v>90</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F271">
         <v>90</v>
@@ -8672,10 +8672,10 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J271" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -8704,10 +8704,10 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J272" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -8724,7 +8724,7 @@
         <v>90</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F273">
         <v>90</v>
@@ -8782,7 +8782,7 @@
         <v>90</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F275">
         <v>90</v>
@@ -8794,10 +8794,10 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J275" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -8826,10 +8826,10 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J276" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -8846,7 +8846,7 @@
         <v>90</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F277">
         <v>90</v>
@@ -8904,7 +8904,7 @@
         <v>90</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F279">
         <v>90</v>
@@ -8916,10 +8916,10 @@
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J279" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -8948,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="I280" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J280" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
         <v>90</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F281">
         <v>90</v>
@@ -9026,7 +9026,7 @@
         <v>90</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F283">
         <v>90</v>
@@ -9038,10 +9038,10 @@
         <v>1</v>
       </c>
       <c r="I283" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J283" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -9070,10 +9070,10 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J284" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -9090,7 +9090,7 @@
         <v>90</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F285">
         <v>90</v>
@@ -9148,7 +9148,7 @@
         <v>90</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F287">
         <v>90</v>
@@ -9160,10 +9160,10 @@
         <v>1</v>
       </c>
       <c r="I287" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J287" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -9192,10 +9192,10 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J288" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -9212,7 +9212,7 @@
         <v>90</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F289">
         <v>90</v>
@@ -9284,7 +9284,7 @@
         <v>90</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F292">
         <v>90</v>
@@ -9296,10 +9296,10 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J292" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -9328,10 +9328,10 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J293" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -9348,7 +9348,7 @@
         <v>90</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F294">
         <v>90</v>
@@ -9406,7 +9406,7 @@
         <v>90</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F296">
         <v>90</v>
@@ -9418,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J296" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -9450,10 +9450,10 @@
         <v>1</v>
       </c>
       <c r="I297" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J297" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
         <v>90</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F298">
         <v>90</v>
@@ -9528,7 +9528,7 @@
         <v>90</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F300">
         <v>90</v>
@@ -9540,10 +9540,10 @@
         <v>1</v>
       </c>
       <c r="I300" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J300" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -9572,10 +9572,10 @@
         <v>1</v>
       </c>
       <c r="I301" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J301" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -9592,7 +9592,7 @@
         <v>90</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F302">
         <v>90</v>
@@ -9650,7 +9650,7 @@
         <v>90</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F304">
         <v>90</v>
@@ -9662,10 +9662,10 @@
         <v>1</v>
       </c>
       <c r="I304" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J304" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -9694,10 +9694,10 @@
         <v>1</v>
       </c>
       <c r="I305" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J305" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -9714,7 +9714,7 @@
         <v>90</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F306">
         <v>90</v>
@@ -9772,7 +9772,7 @@
         <v>90</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F308">
         <v>90</v>
@@ -9784,10 +9784,10 @@
         <v>1</v>
       </c>
       <c r="I308" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J308" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -9816,10 +9816,10 @@
         <v>1</v>
       </c>
       <c r="I309" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J309" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -9836,7 +9836,7 @@
         <v>90</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F310">
         <v>90</v>
@@ -9894,7 +9894,7 @@
         <v>90</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F312">
         <v>90</v>
@@ -9906,10 +9906,10 @@
         <v>1</v>
       </c>
       <c r="I312" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J312" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -9938,10 +9938,10 @@
         <v>1</v>
       </c>
       <c r="I313" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J313" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -9958,7 +9958,7 @@
         <v>90</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F314">
         <v>90</v>
@@ -10016,7 +10016,7 @@
         <v>90</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F316">
         <v>90</v>
@@ -10028,10 +10028,10 @@
         <v>1</v>
       </c>
       <c r="I316" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J316" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -10060,10 +10060,10 @@
         <v>1</v>
       </c>
       <c r="I317" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J317" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -10080,7 +10080,7 @@
         <v>90</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F318">
         <v>90</v>
@@ -10138,7 +10138,7 @@
         <v>90</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F320">
         <v>90</v>
@@ -10150,10 +10150,10 @@
         <v>1</v>
       </c>
       <c r="I320" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J320" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -10182,10 +10182,10 @@
         <v>1</v>
       </c>
       <c r="I321" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J321" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -10202,7 +10202,7 @@
         <v>90</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F322">
         <v>90</v>
@@ -10274,7 +10274,7 @@
         <v>90</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F325">
         <v>90</v>
@@ -10286,10 +10286,10 @@
         <v>1</v>
       </c>
       <c r="I325" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J325" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -10318,10 +10318,10 @@
         <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J326" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -10338,7 +10338,7 @@
         <v>90</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F327">
         <v>90</v>
@@ -10396,7 +10396,7 @@
         <v>90</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F329">
         <v>90</v>
@@ -10408,10 +10408,10 @@
         <v>1</v>
       </c>
       <c r="I329" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J329" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -10440,10 +10440,10 @@
         <v>1</v>
       </c>
       <c r="I330" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J330" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -10460,7 +10460,7 @@
         <v>90</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F331">
         <v>90</v>
@@ -10518,7 +10518,7 @@
         <v>90</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F333">
         <v>90</v>
@@ -10530,10 +10530,10 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J333" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -10562,10 +10562,10 @@
         <v>1</v>
       </c>
       <c r="I334" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J334" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -10582,7 +10582,7 @@
         <v>90</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F335">
         <v>90</v>
@@ -10640,7 +10640,7 @@
         <v>90</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F337">
         <v>90</v>
@@ -10652,10 +10652,10 @@
         <v>1</v>
       </c>
       <c r="I337" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J337" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -10684,10 +10684,10 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J338" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -10704,7 +10704,7 @@
         <v>90</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F339">
         <v>90</v>

--- a/test_excel/IEC13680.xlsx
+++ b/test_excel/IEC13680.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>90</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>135</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1399,6 +1399,6774 @@
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>90</v>
+      </c>
+      <c r="E33" t="n">
+        <v>90</v>
+      </c>
+      <c r="F33" t="n">
+        <v>90</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>90</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>90</v>
+      </c>
+      <c r="E35" t="n">
+        <v>180</v>
+      </c>
+      <c r="F35" t="n">
+        <v>90</v>
+      </c>
+      <c r="G35" t="n">
+        <v>90</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>90</v>
+      </c>
+      <c r="D36" t="n">
+        <v>90</v>
+      </c>
+      <c r="E36" t="n">
+        <v>90</v>
+      </c>
+      <c r="F36" t="n">
+        <v>90</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>90</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>90</v>
+      </c>
+      <c r="E38" t="n">
+        <v>180</v>
+      </c>
+      <c r="F38" t="n">
+        <v>90</v>
+      </c>
+      <c r="G38" t="n">
+        <v>90</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>180</v>
+      </c>
+      <c r="D39" t="n">
+        <v>90</v>
+      </c>
+      <c r="E39" t="n">
+        <v>90</v>
+      </c>
+      <c r="F39" t="n">
+        <v>90</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>90</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>90</v>
+      </c>
+      <c r="E41" t="n">
+        <v>180</v>
+      </c>
+      <c r="F41" t="n">
+        <v>90</v>
+      </c>
+      <c r="G41" t="n">
+        <v>90</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>180</v>
+      </c>
+      <c r="D42" t="n">
+        <v>90</v>
+      </c>
+      <c r="E42" t="n">
+        <v>90</v>
+      </c>
+      <c r="F42" t="n">
+        <v>90</v>
+      </c>
+      <c r="G42" t="n">
+        <v>90</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0,-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>90</v>
+      </c>
+      <c r="E44" t="n">
+        <v>180</v>
+      </c>
+      <c r="F44" t="n">
+        <v>90</v>
+      </c>
+      <c r="G44" t="n">
+        <v>90</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>223</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>27</v>
+      </c>
+      <c r="D46" t="n">
+        <v>90</v>
+      </c>
+      <c r="E46" t="n">
+        <v>90</v>
+      </c>
+      <c r="F46" t="n">
+        <v>90</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>90</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>90</v>
+      </c>
+      <c r="E48" t="n">
+        <v>180</v>
+      </c>
+      <c r="F48" t="n">
+        <v>90</v>
+      </c>
+      <c r="G48" t="n">
+        <v>90</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>63</v>
+      </c>
+      <c r="D49" t="n">
+        <v>90</v>
+      </c>
+      <c r="E49" t="n">
+        <v>90</v>
+      </c>
+      <c r="F49" t="n">
+        <v>90</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>90</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>90</v>
+      </c>
+      <c r="E51" t="n">
+        <v>180</v>
+      </c>
+      <c r="F51" t="n">
+        <v>90</v>
+      </c>
+      <c r="G51" t="n">
+        <v>90</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>117</v>
+      </c>
+      <c r="D52" t="n">
+        <v>90</v>
+      </c>
+      <c r="E52" t="n">
+        <v>90</v>
+      </c>
+      <c r="F52" t="n">
+        <v>90</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>90</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>90</v>
+      </c>
+      <c r="E54" t="n">
+        <v>180</v>
+      </c>
+      <c r="F54" t="n">
+        <v>90</v>
+      </c>
+      <c r="G54" t="n">
+        <v>90</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>153</v>
+      </c>
+      <c r="D55" t="n">
+        <v>90</v>
+      </c>
+      <c r="E55" t="n">
+        <v>90</v>
+      </c>
+      <c r="F55" t="n">
+        <v>90</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>90</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>90</v>
+      </c>
+      <c r="E57" t="n">
+        <v>180</v>
+      </c>
+      <c r="F57" t="n">
+        <v>90</v>
+      </c>
+      <c r="G57" t="n">
+        <v>90</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>180</v>
+      </c>
+      <c r="D58" t="n">
+        <v>90</v>
+      </c>
+      <c r="E58" t="n">
+        <v>90</v>
+      </c>
+      <c r="F58" t="n">
+        <v>90</v>
+      </c>
+      <c r="G58" t="n">
+        <v>27</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>90</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>90</v>
+      </c>
+      <c r="E60" t="n">
+        <v>180</v>
+      </c>
+      <c r="F60" t="n">
+        <v>90</v>
+      </c>
+      <c r="G60" t="n">
+        <v>90</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>180</v>
+      </c>
+      <c r="D61" t="n">
+        <v>90</v>
+      </c>
+      <c r="E61" t="n">
+        <v>90</v>
+      </c>
+      <c r="F61" t="n">
+        <v>90</v>
+      </c>
+      <c r="G61" t="n">
+        <v>63</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>90</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>90</v>
+      </c>
+      <c r="E63" t="n">
+        <v>180</v>
+      </c>
+      <c r="F63" t="n">
+        <v>90</v>
+      </c>
+      <c r="G63" t="n">
+        <v>90</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>180</v>
+      </c>
+      <c r="D64" t="n">
+        <v>90</v>
+      </c>
+      <c r="E64" t="n">
+        <v>90</v>
+      </c>
+      <c r="F64" t="n">
+        <v>90</v>
+      </c>
+      <c r="G64" t="n">
+        <v>117</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>90</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>90</v>
+      </c>
+      <c r="E66" t="n">
+        <v>180</v>
+      </c>
+      <c r="F66" t="n">
+        <v>90</v>
+      </c>
+      <c r="G66" t="n">
+        <v>90</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>180</v>
+      </c>
+      <c r="D67" t="n">
+        <v>90</v>
+      </c>
+      <c r="E67" t="n">
+        <v>90</v>
+      </c>
+      <c r="F67" t="n">
+        <v>90</v>
+      </c>
+      <c r="G67" t="n">
+        <v>153</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>90</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>90</v>
+      </c>
+      <c r="E69" t="n">
+        <v>180</v>
+      </c>
+      <c r="F69" t="n">
+        <v>90</v>
+      </c>
+      <c r="G69" t="n">
+        <v>90</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>282</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>45</v>
+      </c>
+      <c r="D71" t="n">
+        <v>90</v>
+      </c>
+      <c r="E71" t="n">
+        <v>90</v>
+      </c>
+      <c r="F71" t="n">
+        <v>90</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>90</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>90</v>
+      </c>
+      <c r="E73" t="n">
+        <v>180</v>
+      </c>
+      <c r="F73" t="n">
+        <v>90</v>
+      </c>
+      <c r="G73" t="n">
+        <v>90</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>135</v>
+      </c>
+      <c r="D74" t="n">
+        <v>90</v>
+      </c>
+      <c r="E74" t="n">
+        <v>90</v>
+      </c>
+      <c r="F74" t="n">
+        <v>90</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>90</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>90</v>
+      </c>
+      <c r="E76" t="n">
+        <v>180</v>
+      </c>
+      <c r="F76" t="n">
+        <v>90</v>
+      </c>
+      <c r="G76" t="n">
+        <v>90</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>180</v>
+      </c>
+      <c r="D77" t="n">
+        <v>90</v>
+      </c>
+      <c r="E77" t="n">
+        <v>90</v>
+      </c>
+      <c r="F77" t="n">
+        <v>90</v>
+      </c>
+      <c r="G77" t="n">
+        <v>45</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-2,-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>90</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90</v>
+      </c>
+      <c r="E79" t="n">
+        <v>180</v>
+      </c>
+      <c r="F79" t="n">
+        <v>90</v>
+      </c>
+      <c r="G79" t="n">
+        <v>90</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>180</v>
+      </c>
+      <c r="D80" t="n">
+        <v>90</v>
+      </c>
+      <c r="E80" t="n">
+        <v>90</v>
+      </c>
+      <c r="F80" t="n">
+        <v>90</v>
+      </c>
+      <c r="G80" t="n">
+        <v>135</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2,-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>90</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>90</v>
+      </c>
+      <c r="E82" t="n">
+        <v>180</v>
+      </c>
+      <c r="F82" t="n">
+        <v>90</v>
+      </c>
+      <c r="G82" t="n">
+        <v>90</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>300</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>90</v>
+      </c>
+      <c r="E84" t="n">
+        <v>90</v>
+      </c>
+      <c r="F84" t="n">
+        <v>90</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>90</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>90</v>
+      </c>
+      <c r="E86" t="n">
+        <v>180</v>
+      </c>
+      <c r="F86" t="n">
+        <v>90</v>
+      </c>
+      <c r="G86" t="n">
+        <v>90</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>90</v>
+      </c>
+      <c r="D87" t="n">
+        <v>90</v>
+      </c>
+      <c r="E87" t="n">
+        <v>90</v>
+      </c>
+      <c r="F87" t="n">
+        <v>90</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>90</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>90</v>
+      </c>
+      <c r="E89" t="n">
+        <v>180</v>
+      </c>
+      <c r="F89" t="n">
+        <v>90</v>
+      </c>
+      <c r="G89" t="n">
+        <v>90</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>180</v>
+      </c>
+      <c r="D90" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" t="n">
+        <v>90</v>
+      </c>
+      <c r="F90" t="n">
+        <v>90</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="n">
+        <v>180</v>
+      </c>
+      <c r="F92" t="n">
+        <v>90</v>
+      </c>
+      <c r="G92" t="n">
+        <v>90</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>180</v>
+      </c>
+      <c r="D93" t="n">
+        <v>90</v>
+      </c>
+      <c r="E93" t="n">
+        <v>90</v>
+      </c>
+      <c r="F93" t="n">
+        <v>90</v>
+      </c>
+      <c r="G93" t="n">
+        <v>90</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>90</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>90</v>
+      </c>
+      <c r="E95" t="n">
+        <v>180</v>
+      </c>
+      <c r="F95" t="n">
+        <v>90</v>
+      </c>
+      <c r="G95" t="n">
+        <v>90</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>316</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>18</v>
+      </c>
+      <c r="D97" t="n">
+        <v>90</v>
+      </c>
+      <c r="E97" t="n">
+        <v>90</v>
+      </c>
+      <c r="F97" t="n">
+        <v>90</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>90</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>90</v>
+      </c>
+      <c r="E99" t="n">
+        <v>180</v>
+      </c>
+      <c r="F99" t="n">
+        <v>90</v>
+      </c>
+      <c r="G99" t="n">
+        <v>90</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>72</v>
+      </c>
+      <c r="D100" t="n">
+        <v>90</v>
+      </c>
+      <c r="E100" t="n">
+        <v>90</v>
+      </c>
+      <c r="F100" t="n">
+        <v>90</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>90</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>90</v>
+      </c>
+      <c r="E102" t="n">
+        <v>180</v>
+      </c>
+      <c r="F102" t="n">
+        <v>90</v>
+      </c>
+      <c r="G102" t="n">
+        <v>90</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>108</v>
+      </c>
+      <c r="D103" t="n">
+        <v>90</v>
+      </c>
+      <c r="E103" t="n">
+        <v>90</v>
+      </c>
+      <c r="F103" t="n">
+        <v>90</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>90</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>90</v>
+      </c>
+      <c r="E105" t="n">
+        <v>180</v>
+      </c>
+      <c r="F105" t="n">
+        <v>90</v>
+      </c>
+      <c r="G105" t="n">
+        <v>90</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>162</v>
+      </c>
+      <c r="D106" t="n">
+        <v>90</v>
+      </c>
+      <c r="E106" t="n">
+        <v>90</v>
+      </c>
+      <c r="F106" t="n">
+        <v>90</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>90</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>90</v>
+      </c>
+      <c r="E108" t="n">
+        <v>180</v>
+      </c>
+      <c r="F108" t="n">
+        <v>90</v>
+      </c>
+      <c r="G108" t="n">
+        <v>90</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>180</v>
+      </c>
+      <c r="D109" t="n">
+        <v>90</v>
+      </c>
+      <c r="E109" t="n">
+        <v>90</v>
+      </c>
+      <c r="F109" t="n">
+        <v>90</v>
+      </c>
+      <c r="G109" t="n">
+        <v>18</v>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>-3,-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>90</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>90</v>
+      </c>
+      <c r="E111" t="n">
+        <v>180</v>
+      </c>
+      <c r="F111" t="n">
+        <v>90</v>
+      </c>
+      <c r="G111" t="n">
+        <v>90</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>180</v>
+      </c>
+      <c r="D112" t="n">
+        <v>90</v>
+      </c>
+      <c r="E112" t="n">
+        <v>90</v>
+      </c>
+      <c r="F112" t="n">
+        <v>90</v>
+      </c>
+      <c r="G112" t="n">
+        <v>72</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>-1,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>90</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>90</v>
+      </c>
+      <c r="E114" t="n">
+        <v>180</v>
+      </c>
+      <c r="F114" t="n">
+        <v>90</v>
+      </c>
+      <c r="G114" t="n">
+        <v>90</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>180</v>
+      </c>
+      <c r="D115" t="n">
+        <v>90</v>
+      </c>
+      <c r="E115" t="n">
+        <v>90</v>
+      </c>
+      <c r="F115" t="n">
+        <v>90</v>
+      </c>
+      <c r="G115" t="n">
+        <v>108</v>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>1,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>90</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>90</v>
+      </c>
+      <c r="E117" t="n">
+        <v>180</v>
+      </c>
+      <c r="F117" t="n">
+        <v>90</v>
+      </c>
+      <c r="G117" t="n">
+        <v>90</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>180</v>
+      </c>
+      <c r="D118" t="n">
+        <v>90</v>
+      </c>
+      <c r="E118" t="n">
+        <v>90</v>
+      </c>
+      <c r="F118" t="n">
+        <v>90</v>
+      </c>
+      <c r="G118" t="n">
+        <v>162</v>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>3,-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>90</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>90</v>
+      </c>
+      <c r="E120" t="n">
+        <v>180</v>
+      </c>
+      <c r="F120" t="n">
+        <v>90</v>
+      </c>
+      <c r="G120" t="n">
+        <v>90</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>360</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>34</v>
+      </c>
+      <c r="D122" t="n">
+        <v>90</v>
+      </c>
+      <c r="E122" t="n">
+        <v>90</v>
+      </c>
+      <c r="F122" t="n">
+        <v>90</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>90</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>90</v>
+      </c>
+      <c r="E124" t="n">
+        <v>180</v>
+      </c>
+      <c r="F124" t="n">
+        <v>90</v>
+      </c>
+      <c r="G124" t="n">
+        <v>90</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>56</v>
+      </c>
+      <c r="D125" t="n">
+        <v>90</v>
+      </c>
+      <c r="E125" t="n">
+        <v>90</v>
+      </c>
+      <c r="F125" t="n">
+        <v>90</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>90</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>90</v>
+      </c>
+      <c r="E127" t="n">
+        <v>180</v>
+      </c>
+      <c r="F127" t="n">
+        <v>90</v>
+      </c>
+      <c r="G127" t="n">
+        <v>90</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>124</v>
+      </c>
+      <c r="D128" t="n">
+        <v>90</v>
+      </c>
+      <c r="E128" t="n">
+        <v>90</v>
+      </c>
+      <c r="F128" t="n">
+        <v>90</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>90</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>90</v>
+      </c>
+      <c r="E130" t="n">
+        <v>180</v>
+      </c>
+      <c r="F130" t="n">
+        <v>90</v>
+      </c>
+      <c r="G130" t="n">
+        <v>90</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>146</v>
+      </c>
+      <c r="D131" t="n">
+        <v>90</v>
+      </c>
+      <c r="E131" t="n">
+        <v>90</v>
+      </c>
+      <c r="F131" t="n">
+        <v>90</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>90</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>90</v>
+      </c>
+      <c r="E133" t="n">
+        <v>180</v>
+      </c>
+      <c r="F133" t="n">
+        <v>90</v>
+      </c>
+      <c r="G133" t="n">
+        <v>90</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>180</v>
+      </c>
+      <c r="D134" t="n">
+        <v>90</v>
+      </c>
+      <c r="E134" t="n">
+        <v>90</v>
+      </c>
+      <c r="F134" t="n">
+        <v>90</v>
+      </c>
+      <c r="G134" t="n">
+        <v>34</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>-3,-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>90</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>90</v>
+      </c>
+      <c r="E136" t="n">
+        <v>180</v>
+      </c>
+      <c r="F136" t="n">
+        <v>90</v>
+      </c>
+      <c r="G136" t="n">
+        <v>90</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>180</v>
+      </c>
+      <c r="D137" t="n">
+        <v>90</v>
+      </c>
+      <c r="E137" t="n">
+        <v>90</v>
+      </c>
+      <c r="F137" t="n">
+        <v>90</v>
+      </c>
+      <c r="G137" t="n">
+        <v>56</v>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>-2,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>90</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>90</v>
+      </c>
+      <c r="E139" t="n">
+        <v>180</v>
+      </c>
+      <c r="F139" t="n">
+        <v>90</v>
+      </c>
+      <c r="G139" t="n">
+        <v>90</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>180</v>
+      </c>
+      <c r="D140" t="n">
+        <v>90</v>
+      </c>
+      <c r="E140" t="n">
+        <v>90</v>
+      </c>
+      <c r="F140" t="n">
+        <v>90</v>
+      </c>
+      <c r="G140" t="n">
+        <v>124</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>90</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>90</v>
+      </c>
+      <c r="E142" t="n">
+        <v>180</v>
+      </c>
+      <c r="F142" t="n">
+        <v>90</v>
+      </c>
+      <c r="G142" t="n">
+        <v>90</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>180</v>
+      </c>
+      <c r="D143" t="n">
+        <v>90</v>
+      </c>
+      <c r="E143" t="n">
+        <v>90</v>
+      </c>
+      <c r="F143" t="n">
+        <v>90</v>
+      </c>
+      <c r="G143" t="n">
+        <v>146</v>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>3,-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>90</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>90</v>
+      </c>
+      <c r="E145" t="n">
+        <v>180</v>
+      </c>
+      <c r="F145" t="n">
+        <v>90</v>
+      </c>
+      <c r="G145" t="n">
+        <v>90</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>400</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>90</v>
+      </c>
+      <c r="E147" t="n">
+        <v>90</v>
+      </c>
+      <c r="F147" t="n">
+        <v>90</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>90</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>90</v>
+      </c>
+      <c r="E149" t="n">
+        <v>180</v>
+      </c>
+      <c r="F149" t="n">
+        <v>90</v>
+      </c>
+      <c r="G149" t="n">
+        <v>90</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>90</v>
+      </c>
+      <c r="D150" t="n">
+        <v>90</v>
+      </c>
+      <c r="E150" t="n">
+        <v>90</v>
+      </c>
+      <c r="F150" t="n">
+        <v>90</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>90</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>90</v>
+      </c>
+      <c r="E152" t="n">
+        <v>180</v>
+      </c>
+      <c r="F152" t="n">
+        <v>90</v>
+      </c>
+      <c r="G152" t="n">
+        <v>90</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>180</v>
+      </c>
+      <c r="D153" t="n">
+        <v>90</v>
+      </c>
+      <c r="E153" t="n">
+        <v>90</v>
+      </c>
+      <c r="F153" t="n">
+        <v>90</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>-4,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>90</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>90</v>
+      </c>
+      <c r="E155" t="n">
+        <v>180</v>
+      </c>
+      <c r="F155" t="n">
+        <v>90</v>
+      </c>
+      <c r="G155" t="n">
+        <v>90</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>180</v>
+      </c>
+      <c r="D156" t="n">
+        <v>90</v>
+      </c>
+      <c r="E156" t="n">
+        <v>90</v>
+      </c>
+      <c r="F156" t="n">
+        <v>90</v>
+      </c>
+      <c r="G156" t="n">
+        <v>90</v>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>0,-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>90</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>90</v>
+      </c>
+      <c r="E158" t="n">
+        <v>180</v>
+      </c>
+      <c r="F158" t="n">
+        <v>90</v>
+      </c>
+      <c r="G158" t="n">
+        <v>90</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>412</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>14</v>
+      </c>
+      <c r="D160" t="n">
+        <v>90</v>
+      </c>
+      <c r="E160" t="n">
+        <v>90</v>
+      </c>
+      <c r="F160" t="n">
+        <v>90</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>90</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>90</v>
+      </c>
+      <c r="E162" t="n">
+        <v>180</v>
+      </c>
+      <c r="F162" t="n">
+        <v>90</v>
+      </c>
+      <c r="G162" t="n">
+        <v>90</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>76</v>
+      </c>
+      <c r="D163" t="n">
+        <v>90</v>
+      </c>
+      <c r="E163" t="n">
+        <v>90</v>
+      </c>
+      <c r="F163" t="n">
+        <v>90</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>90</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>90</v>
+      </c>
+      <c r="E165" t="n">
+        <v>180</v>
+      </c>
+      <c r="F165" t="n">
+        <v>90</v>
+      </c>
+      <c r="G165" t="n">
+        <v>90</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>104</v>
+      </c>
+      <c r="D166" t="n">
+        <v>90</v>
+      </c>
+      <c r="E166" t="n">
+        <v>90</v>
+      </c>
+      <c r="F166" t="n">
+        <v>90</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>90</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>90</v>
+      </c>
+      <c r="E168" t="n">
+        <v>180</v>
+      </c>
+      <c r="F168" t="n">
+        <v>90</v>
+      </c>
+      <c r="G168" t="n">
+        <v>90</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>166</v>
+      </c>
+      <c r="D169" t="n">
+        <v>90</v>
+      </c>
+      <c r="E169" t="n">
+        <v>90</v>
+      </c>
+      <c r="F169" t="n">
+        <v>90</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>90</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>90</v>
+      </c>
+      <c r="E171" t="n">
+        <v>180</v>
+      </c>
+      <c r="F171" t="n">
+        <v>90</v>
+      </c>
+      <c r="G171" t="n">
+        <v>90</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>180</v>
+      </c>
+      <c r="D172" t="n">
+        <v>90</v>
+      </c>
+      <c r="E172" t="n">
+        <v>90</v>
+      </c>
+      <c r="F172" t="n">
+        <v>90</v>
+      </c>
+      <c r="G172" t="n">
+        <v>14</v>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>-4,-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>90</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>90</v>
+      </c>
+      <c r="E174" t="n">
+        <v>180</v>
+      </c>
+      <c r="F174" t="n">
+        <v>90</v>
+      </c>
+      <c r="G174" t="n">
+        <v>90</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>180</v>
+      </c>
+      <c r="D175" t="n">
+        <v>90</v>
+      </c>
+      <c r="E175" t="n">
+        <v>90</v>
+      </c>
+      <c r="F175" t="n">
+        <v>90</v>
+      </c>
+      <c r="G175" t="n">
+        <v>76</v>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>-1,-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>90</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>90</v>
+      </c>
+      <c r="E177" t="n">
+        <v>180</v>
+      </c>
+      <c r="F177" t="n">
+        <v>90</v>
+      </c>
+      <c r="G177" t="n">
+        <v>90</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>180</v>
+      </c>
+      <c r="D178" t="n">
+        <v>90</v>
+      </c>
+      <c r="E178" t="n">
+        <v>90</v>
+      </c>
+      <c r="F178" t="n">
+        <v>90</v>
+      </c>
+      <c r="G178" t="n">
+        <v>104</v>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>1,-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>90</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>90</v>
+      </c>
+      <c r="E180" t="n">
+        <v>180</v>
+      </c>
+      <c r="F180" t="n">
+        <v>90</v>
+      </c>
+      <c r="G180" t="n">
+        <v>90</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>180</v>
+      </c>
+      <c r="D181" t="n">
+        <v>90</v>
+      </c>
+      <c r="E181" t="n">
+        <v>90</v>
+      </c>
+      <c r="F181" t="n">
+        <v>90</v>
+      </c>
+      <c r="G181" t="n">
+        <v>166</v>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>4,-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>90</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>90</v>
+      </c>
+      <c r="E183" t="n">
+        <v>180</v>
+      </c>
+      <c r="F183" t="n">
+        <v>90</v>
+      </c>
+      <c r="G183" t="n">
+        <v>90</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>424</v>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>45</v>
+      </c>
+      <c r="D185" t="n">
+        <v>90</v>
+      </c>
+      <c r="E185" t="n">
+        <v>90</v>
+      </c>
+      <c r="F185" t="n">
+        <v>90</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>90</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>90</v>
+      </c>
+      <c r="E187" t="n">
+        <v>180</v>
+      </c>
+      <c r="F187" t="n">
+        <v>90</v>
+      </c>
+      <c r="G187" t="n">
+        <v>90</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>135</v>
+      </c>
+      <c r="D188" t="n">
+        <v>90</v>
+      </c>
+      <c r="E188" t="n">
+        <v>90</v>
+      </c>
+      <c r="F188" t="n">
+        <v>90</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>-3,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>90</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>90</v>
+      </c>
+      <c r="E190" t="n">
+        <v>180</v>
+      </c>
+      <c r="F190" t="n">
+        <v>90</v>
+      </c>
+      <c r="G190" t="n">
+        <v>90</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>180</v>
+      </c>
+      <c r="D191" t="n">
+        <v>90</v>
+      </c>
+      <c r="E191" t="n">
+        <v>90</v>
+      </c>
+      <c r="F191" t="n">
+        <v>90</v>
+      </c>
+      <c r="G191" t="n">
+        <v>45</v>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>-3,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>90</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>90</v>
+      </c>
+      <c r="E193" t="n">
+        <v>180</v>
+      </c>
+      <c r="F193" t="n">
+        <v>90</v>
+      </c>
+      <c r="G193" t="n">
+        <v>90</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>180</v>
+      </c>
+      <c r="D194" t="n">
+        <v>90</v>
+      </c>
+      <c r="E194" t="n">
+        <v>90</v>
+      </c>
+      <c r="F194" t="n">
+        <v>90</v>
+      </c>
+      <c r="G194" t="n">
+        <v>135</v>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>3,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>90</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>90</v>
+      </c>
+      <c r="E196" t="n">
+        <v>180</v>
+      </c>
+      <c r="F196" t="n">
+        <v>90</v>
+      </c>
+      <c r="G196" t="n">
+        <v>90</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>447</v>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>27</v>
+      </c>
+      <c r="D198" t="n">
+        <v>90</v>
+      </c>
+      <c r="E198" t="n">
+        <v>90</v>
+      </c>
+      <c r="F198" t="n">
+        <v>90</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>90</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>90</v>
+      </c>
+      <c r="E200" t="n">
+        <v>180</v>
+      </c>
+      <c r="F200" t="n">
+        <v>90</v>
+      </c>
+      <c r="G200" t="n">
+        <v>90</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>63</v>
+      </c>
+      <c r="D201" t="n">
+        <v>90</v>
+      </c>
+      <c r="E201" t="n">
+        <v>90</v>
+      </c>
+      <c r="F201" t="n">
+        <v>90</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>90</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>90</v>
+      </c>
+      <c r="E203" t="n">
+        <v>180</v>
+      </c>
+      <c r="F203" t="n">
+        <v>90</v>
+      </c>
+      <c r="G203" t="n">
+        <v>90</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>117</v>
+      </c>
+      <c r="D204" t="n">
+        <v>90</v>
+      </c>
+      <c r="E204" t="n">
+        <v>90</v>
+      </c>
+      <c r="F204" t="n">
+        <v>90</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>90</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>90</v>
+      </c>
+      <c r="E206" t="n">
+        <v>180</v>
+      </c>
+      <c r="F206" t="n">
+        <v>90</v>
+      </c>
+      <c r="G206" t="n">
+        <v>90</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>153</v>
+      </c>
+      <c r="D207" t="n">
+        <v>90</v>
+      </c>
+      <c r="E207" t="n">
+        <v>90</v>
+      </c>
+      <c r="F207" t="n">
+        <v>90</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>90</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>90</v>
+      </c>
+      <c r="E209" t="n">
+        <v>180</v>
+      </c>
+      <c r="F209" t="n">
+        <v>90</v>
+      </c>
+      <c r="G209" t="n">
+        <v>90</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>180</v>
+      </c>
+      <c r="D210" t="n">
+        <v>90</v>
+      </c>
+      <c r="E210" t="n">
+        <v>90</v>
+      </c>
+      <c r="F210" t="n">
+        <v>90</v>
+      </c>
+      <c r="G210" t="n">
+        <v>27</v>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>90</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>90</v>
+      </c>
+      <c r="E212" t="n">
+        <v>180</v>
+      </c>
+      <c r="F212" t="n">
+        <v>90</v>
+      </c>
+      <c r="G212" t="n">
+        <v>90</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>180</v>
+      </c>
+      <c r="D213" t="n">
+        <v>90</v>
+      </c>
+      <c r="E213" t="n">
+        <v>90</v>
+      </c>
+      <c r="F213" t="n">
+        <v>90</v>
+      </c>
+      <c r="G213" t="n">
+        <v>63</v>
+      </c>
+      <c r="H213" t="n">
+        <v>8</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>90</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>90</v>
+      </c>
+      <c r="E215" t="n">
+        <v>180</v>
+      </c>
+      <c r="F215" t="n">
+        <v>90</v>
+      </c>
+      <c r="G215" t="n">
+        <v>90</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>180</v>
+      </c>
+      <c r="D216" t="n">
+        <v>90</v>
+      </c>
+      <c r="E216" t="n">
+        <v>90</v>
+      </c>
+      <c r="F216" t="n">
+        <v>90</v>
+      </c>
+      <c r="G216" t="n">
+        <v>117</v>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>90</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>90</v>
+      </c>
+      <c r="E218" t="n">
+        <v>180</v>
+      </c>
+      <c r="F218" t="n">
+        <v>90</v>
+      </c>
+      <c r="G218" t="n">
+        <v>90</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>180</v>
+      </c>
+      <c r="D219" t="n">
+        <v>90</v>
+      </c>
+      <c r="E219" t="n">
+        <v>90</v>
+      </c>
+      <c r="F219" t="n">
+        <v>90</v>
+      </c>
+      <c r="G219" t="n">
+        <v>153</v>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>90</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>90</v>
+      </c>
+      <c r="E221" t="n">
+        <v>180</v>
+      </c>
+      <c r="F221" t="n">
+        <v>90</v>
+      </c>
+      <c r="G221" t="n">
+        <v>90</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>500</v>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>37</v>
+      </c>
+      <c r="D223" t="n">
+        <v>90</v>
+      </c>
+      <c r="E223" t="n">
+        <v>90</v>
+      </c>
+      <c r="F223" t="n">
+        <v>90</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>8</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>90</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>90</v>
+      </c>
+      <c r="E225" t="n">
+        <v>180</v>
+      </c>
+      <c r="F225" t="n">
+        <v>90</v>
+      </c>
+      <c r="G225" t="n">
+        <v>90</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>53</v>
+      </c>
+      <c r="D226" t="n">
+        <v>90</v>
+      </c>
+      <c r="E226" t="n">
+        <v>90</v>
+      </c>
+      <c r="F226" t="n">
+        <v>90</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>8</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>90</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>90</v>
+      </c>
+      <c r="E228" t="n">
+        <v>180</v>
+      </c>
+      <c r="F228" t="n">
+        <v>90</v>
+      </c>
+      <c r="G228" t="n">
+        <v>90</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>127</v>
+      </c>
+      <c r="D229" t="n">
+        <v>90</v>
+      </c>
+      <c r="E229" t="n">
+        <v>90</v>
+      </c>
+      <c r="F229" t="n">
+        <v>90</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>8</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>90</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>90</v>
+      </c>
+      <c r="E231" t="n">
+        <v>180</v>
+      </c>
+      <c r="F231" t="n">
+        <v>90</v>
+      </c>
+      <c r="G231" t="n">
+        <v>90</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>143</v>
+      </c>
+      <c r="D232" t="n">
+        <v>90</v>
+      </c>
+      <c r="E232" t="n">
+        <v>90</v>
+      </c>
+      <c r="F232" t="n">
+        <v>90</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>8</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>-4,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>90</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>90</v>
+      </c>
+      <c r="E234" t="n">
+        <v>180</v>
+      </c>
+      <c r="F234" t="n">
+        <v>90</v>
+      </c>
+      <c r="G234" t="n">
+        <v>90</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>180</v>
+      </c>
+      <c r="D235" t="n">
+        <v>90</v>
+      </c>
+      <c r="E235" t="n">
+        <v>90</v>
+      </c>
+      <c r="F235" t="n">
+        <v>90</v>
+      </c>
+      <c r="G235" t="n">
+        <v>37</v>
+      </c>
+      <c r="H235" t="n">
+        <v>8</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>-4,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>90</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>90</v>
+      </c>
+      <c r="E237" t="n">
+        <v>180</v>
+      </c>
+      <c r="F237" t="n">
+        <v>90</v>
+      </c>
+      <c r="G237" t="n">
+        <v>90</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>180</v>
+      </c>
+      <c r="D238" t="n">
+        <v>90</v>
+      </c>
+      <c r="E238" t="n">
+        <v>90</v>
+      </c>
+      <c r="F238" t="n">
+        <v>90</v>
+      </c>
+      <c r="G238" t="n">
+        <v>53</v>
+      </c>
+      <c r="H238" t="n">
+        <v>8</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>-3,-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>90</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>90</v>
+      </c>
+      <c r="E240" t="n">
+        <v>180</v>
+      </c>
+      <c r="F240" t="n">
+        <v>90</v>
+      </c>
+      <c r="G240" t="n">
+        <v>90</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>180</v>
+      </c>
+      <c r="D241" t="n">
+        <v>90</v>
+      </c>
+      <c r="E241" t="n">
+        <v>90</v>
+      </c>
+      <c r="F241" t="n">
+        <v>90</v>
+      </c>
+      <c r="G241" t="n">
+        <v>127</v>
+      </c>
+      <c r="H241" t="n">
+        <v>8</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>3,-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>90</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>90</v>
+      </c>
+      <c r="E243" t="n">
+        <v>180</v>
+      </c>
+      <c r="F243" t="n">
+        <v>90</v>
+      </c>
+      <c r="G243" t="n">
+        <v>90</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>180</v>
+      </c>
+      <c r="D244" t="n">
+        <v>90</v>
+      </c>
+      <c r="E244" t="n">
+        <v>90</v>
+      </c>
+      <c r="F244" t="n">
+        <v>90</v>
+      </c>
+      <c r="G244" t="n">
+        <v>143</v>
+      </c>
+      <c r="H244" t="n">
+        <v>8</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>4,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>90</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>90</v>
+      </c>
+      <c r="E246" t="n">
+        <v>180</v>
+      </c>
+      <c r="F246" t="n">
+        <v>90</v>
+      </c>
+      <c r="G246" t="n">
+        <v>90</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>sb_server</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>565</v>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>45</v>
+      </c>
+      <c r="D248" t="n">
+        <v>90</v>
+      </c>
+      <c r="E248" t="n">
+        <v>90</v>
+      </c>
+      <c r="F248" t="n">
+        <v>90</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>8</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>90</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>90</v>
+      </c>
+      <c r="E250" t="n">
+        <v>180</v>
+      </c>
+      <c r="F250" t="n">
+        <v>90</v>
+      </c>
+      <c r="G250" t="n">
+        <v>90</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>135</v>
+      </c>
+      <c r="D251" t="n">
+        <v>90</v>
+      </c>
+      <c r="E251" t="n">
+        <v>90</v>
+      </c>
+      <c r="F251" t="n">
+        <v>90</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>8</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>-4,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>90</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>90</v>
+      </c>
+      <c r="E253" t="n">
+        <v>180</v>
+      </c>
+      <c r="F253" t="n">
+        <v>90</v>
+      </c>
+      <c r="G253" t="n">
+        <v>90</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>180</v>
+      </c>
+      <c r="D254" t="n">
+        <v>90</v>
+      </c>
+      <c r="E254" t="n">
+        <v>90</v>
+      </c>
+      <c r="F254" t="n">
+        <v>90</v>
+      </c>
+      <c r="G254" t="n">
+        <v>45</v>
+      </c>
+      <c r="H254" t="n">
+        <v>8</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>-4,-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>90</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>90</v>
+      </c>
+      <c r="E256" t="n">
+        <v>180</v>
+      </c>
+      <c r="F256" t="n">
+        <v>90</v>
+      </c>
+      <c r="G256" t="n">
+        <v>90</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>dut_server</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>180</v>
+      </c>
+      <c r="D257" t="n">
+        <v>90</v>
+      </c>
+      <c r="E257" t="n">
+        <v>90</v>
+      </c>
+      <c r="F257" t="n">
+        <v>90</v>
+      </c>
+      <c r="G257" t="n">
+        <v>135</v>
+      </c>
+      <c r="H257" t="n">
+        <v>8</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>4,-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>iec63180_movement_set</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>arm_server</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>90</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>90</v>
+      </c>
+      <c r="E259" t="n">
+        <v>180</v>
+      </c>
+      <c r="F259" t="n">
+        <v>90</v>
+      </c>
+      <c r="G259" t="n">
+        <v>90</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
